--- a/2023/sweden_allsvenskan_2023.xlsx
+++ b/2023/sweden_allsvenskan_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V185"/>
+  <dimension ref="A1:V191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.45</v>
+        <v>2.01</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>03/05/2023 18:55</t>
+          <t>03/05/2023 18:59</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>4.38</v>
+        <v>3.99</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>4.74</v>
+        <v>3.41</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>03/05/2023 18:55</t>
+          <t>03/05/2023 18:59</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>6.74</v>
+        <v>5.37</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>7.7</v>
+        <v>4.21</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>03/05/2023 18:55</t>
+          <t>03/05/2023 18:59</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-halmstad/betVKRs3/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-sirius/j3bxJ5CF/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.95</v>
+        <v>2.94</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>30/04/2023 17:42</t>
+          <t>29/04/2023 15:12</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.88</v>
+        <v>2.98</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>03/05/2023 18:46</t>
+          <t>03/05/2023 18:57</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.78</v>
+        <v>3.25</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>30/04/2023 17:42</t>
+          <t>29/04/2023 15:12</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.96</v>
+        <v>3.04</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>03/05/2023 18:54</t>
+          <t>03/05/2023 18:39</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.79</v>
+        <v>2.56</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>30/04/2023 17:42</t>
+          <t>29/04/2023 15:12</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>4.09</v>
+        <v>2.79</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>03/05/2023 18:54</t>
+          <t>03/05/2023 18:57</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-djurgarden/hIuZJoc9/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-aik/YRmsIPRL/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>2.94</v>
+        <v>1.5</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>29/04/2023 15:12</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.98</v>
+        <v>1.45</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>03/05/2023 18:57</t>
+          <t>03/05/2023 18:55</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.25</v>
+        <v>4.38</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>29/04/2023 15:12</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.04</v>
+        <v>4.74</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>03/05/2023 18:39</t>
+          <t>03/05/2023 18:55</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.56</v>
+        <v>6.74</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>29/04/2023 15:12</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.79</v>
+        <v>7.7</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>03/05/2023 18:57</t>
+          <t>03/05/2023 18:55</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-aik/YRmsIPRL/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-halmstad/betVKRs3/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>30/04/2023 17:42</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.01</v>
+        <v>1.88</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>03/05/2023 18:59</t>
+          <t>03/05/2023 18:46</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.99</v>
+        <v>3.78</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>30/04/2023 17:42</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.41</v>
+        <v>3.96</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>03/05/2023 18:59</t>
+          <t>03/05/2023 18:54</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>5.37</v>
+        <v>3.79</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>30/04/2023 17:42</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>4.21</v>
+        <v>4.09</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>03/05/2023 18:59</t>
+          <t>03/05/2023 18:54</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-sirius/j3bxJ5CF/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-djurgarden/hIuZJoc9/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>01/05/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
         <v>1.99</v>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>01/05/2023 15:12</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1.79</v>
-      </c>
       <c r="M46" t="inlineStr">
         <is>
+          <t>04/05/2023 18:56</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>01/05/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
           <t>04/05/2023 18:59</t>
         </is>
       </c>
-      <c r="N46" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>01/05/2023 15:12</t>
-        </is>
-      </c>
-      <c r="P46" t="n">
+      <c r="R46" t="n">
         <v>3.96</v>
       </c>
-      <c r="Q46" t="inlineStr">
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>01/05/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="U46" t="inlineStr">
         <is>
           <t>04/05/2023 18:59</t>
         </is>
       </c>
-      <c r="R46" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>01/05/2023 15:12</t>
-        </is>
-      </c>
-      <c r="T46" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>04/05/2023 18:59</t>
-        </is>
-      </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-degerfors/rmbrcOkd/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-brommapojkarna/CInoHqsS/</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,63 +4721,63 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J47" t="n">
-        <v>1.93</v>
+        <v>4.57</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.99</v>
+        <v>8</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>04/05/2023 18:56</t>
+          <t>04/05/2023 18:53</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.7</v>
+        <v>3.82</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.51</v>
+        <v>4.47</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>04/05/2023 18:59</t>
+          <t>04/05/2023 18:53</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.96</v>
+        <v>1.78</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>4.15</v>
+        <v>1.47</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>04/05/2023 18:59</t>
+          <t>04/05/2023 18:53</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-brommapojkarna/CInoHqsS/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-malmo-ff/4AvDC3kq/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="G49" t="n">
+        <v>6</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Degerfors</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Malmo FF</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>6</v>
-      </c>
       <c r="J49" t="n">
-        <v>4.57</v>
+        <v>1.99</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>01/05/2023 15:12</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>8</v>
+        <v>1.79</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>04/05/2023 18:53</t>
+          <t>04/05/2023 18:59</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.82</v>
+        <v>3.75</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>01/05/2023 15:12</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>4.47</v>
+        <v>3.96</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>04/05/2023 18:53</t>
+          <t>04/05/2023 18:59</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>1.78</v>
+        <v>3.69</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>01/05/2023 15:12</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>1.47</v>
+        <v>4.56</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>04/05/2023 18:53</t>
+          <t>04/05/2023 18:59</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-malmo-ff/4AvDC3kq/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-degerfors/rmbrcOkd/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="G60" t="n">
+        <v>4</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Djurgarden</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
         <v>3</v>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Sirius</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
       <c r="J60" t="n">
-        <v>2.15</v>
+        <v>2.38</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.59</v>
+        <v>2.48</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>14/05/2023 14:57</t>
+          <t>14/05/2023 14:53</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.32</v>
+        <v>3.69</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.13</v>
+        <v>3.4</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>14/05/2023 14:57</t>
+          <t>14/05/2023 14:53</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.65</v>
+        <v>2.88</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.11</v>
+        <v>3.02</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>14/05/2023 14:57</t>
+          <t>14/05/2023 14:47</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-sirius/vqylXeXP/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-djurgarden/vmikCfe0/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2.38</v>
+        <v>1.39</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.48</v>
+        <v>1.51</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>14/05/2023 14:53</t>
+          <t>14/05/2023 14:33</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.69</v>
+        <v>4.93</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.4</v>
+        <v>4.58</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>14/05/2023 14:53</t>
+          <t>14/05/2023 14:57</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.88</v>
+        <v>8.19</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3.02</v>
+        <v>6.34</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>14/05/2023 14:47</t>
+          <t>14/05/2023 14:57</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-djurgarden/vmikCfe0/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-varnamo/IwjgBEA6/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>1.39</v>
+        <v>2.15</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.51</v>
+        <v>2.59</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>14/05/2023 14:33</t>
+          <t>14/05/2023 14:57</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>4.93</v>
+        <v>3.32</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>4.58</v>
+        <v>3.13</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         </is>
       </c>
       <c r="R62" t="n">
-        <v>8.19</v>
+        <v>3.65</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>6.34</v>
+        <v>3.11</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-varnamo/IwjgBEA6/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-sirius/vqylXeXP/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G78" t="n">
+        <v>2</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Norrkoping</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
         <v>1</v>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>AIK</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
       <c r="J78" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>24/05/2023 19:13</t>
+          <t>22/05/2023 19:12</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.88</v>
+        <v>2.27</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>28/05/2023 14:34</t>
+          <t>28/05/2023 13:18</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.62</v>
+        <v>3.49</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>24/05/2023 19:13</t>
+          <t>22/05/2023 19:12</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.57</v>
+        <v>3.33</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>28/05/2023 14:34</t>
+          <t>28/05/2023 14:08</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>4.21</v>
+        <v>3.82</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>24/05/2023 19:13</t>
+          <t>22/05/2023 19:12</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>4.57</v>
+        <v>3.48</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>28/05/2023 14:34</t>
+          <t>28/05/2023 13:18</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-aik/GnchtZ9t/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-norrkoping/pSl9xi95/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>22/05/2023 19:12</t>
+          <t>24/05/2023 19:13</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.27</v>
+        <v>1.88</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>28/05/2023 13:18</t>
+          <t>28/05/2023 14:34</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.49</v>
+        <v>3.62</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>22/05/2023 19:12</t>
+          <t>24/05/2023 19:13</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.33</v>
+        <v>3.57</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>28/05/2023 14:08</t>
+          <t>28/05/2023 14:34</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.82</v>
+        <v>4.21</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>22/05/2023 19:12</t>
+          <t>24/05/2023 19:13</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>3.48</v>
+        <v>4.57</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>28/05/2023 13:18</t>
+          <t>28/05/2023 14:34</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-norrkoping/pSl9xi95/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-aik/GnchtZ9t/</t>
         </is>
       </c>
     </row>
@@ -8301,71 +8301,71 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>3.94</v>
+        <v>2.01</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>29/05/2023 19:12</t>
+          <t>28/05/2023 15:12</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>3.19</v>
+        <v>2.23</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>04/06/2023 14:58</t>
+          <t>04/06/2023 14:53</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.7</v>
+        <v>3.47</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>29/05/2023 19:12</t>
+          <t>28/05/2023 15:12</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.38</v>
+        <v>3.13</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>04/06/2023 14:58</t>
+          <t>04/06/2023 14:53</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>1.96</v>
+        <v>4.11</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>29/05/2023 19:12</t>
+          <t>28/05/2023 15:12</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2.39</v>
+        <v>3.85</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>04/06/2023 14:50</t>
+          <t>04/06/2023 14:53</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-hammarby/tf4mjAw5/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-kalmar/nioQY88U/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>2.01</v>
+        <v>3.94</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>28/05/2023 15:12</t>
+          <t>29/05/2023 19:12</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.23</v>
+        <v>3.19</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>04/06/2023 14:53</t>
+          <t>04/06/2023 14:58</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.47</v>
+        <v>3.7</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>28/05/2023 15:12</t>
+          <t>29/05/2023 19:12</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.13</v>
+        <v>3.38</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>04/06/2023 14:53</t>
+          <t>04/06/2023 14:58</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>4.11</v>
+        <v>1.96</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>28/05/2023 15:12</t>
+          <t>29/05/2023 19:12</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.85</v>
+        <v>2.39</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>04/06/2023 14:53</t>
+          <t>04/06/2023 14:50</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-kalmar/nioQY88U/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-hammarby/tf4mjAw5/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G93" t="n">
+        <v>2</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Degerfors</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
         <v>1</v>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Malmo FF</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
-        <v>3</v>
-      </c>
       <c r="J93" t="n">
-        <v>5.05</v>
+        <v>1.61</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>5.47</v>
+        <v>1.65</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>10/06/2023 14:59</t>
+          <t>10/06/2023 14:58</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>4.16</v>
+        <v>4.22</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.91</v>
+        <v>4.11</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>10/06/2023 14:59</t>
+          <t>10/06/2023 14:58</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>1.65</v>
+        <v>5.37</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>1.69</v>
+        <v>5.48</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>10/06/2023 14:59</t>
+          <t>10/06/2023 14:58</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-malmo-ff/bijJ3T74/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-degerfors/K0iF49hb/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J94" t="n">
-        <v>1.61</v>
+        <v>5.05</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,48 +9060,48 @@
         </is>
       </c>
       <c r="L94" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>10/06/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>05/06/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>10/06/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
         <v>1.65</v>
       </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>10/06/2023 14:58</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="O94" t="inlineStr">
+      <c r="S94" t="inlineStr">
         <is>
           <t>05/06/2023 19:12</t>
         </is>
       </c>
-      <c r="P94" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="Q94" t="inlineStr">
-        <is>
-          <t>10/06/2023 14:58</t>
-        </is>
-      </c>
-      <c r="R94" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>05/06/2023 19:12</t>
-        </is>
-      </c>
       <c r="T94" t="n">
-        <v>5.48</v>
+        <v>1.69</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>10/06/2023 14:58</t>
+          <t>10/06/2023 14:59</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-degerfors/K0iF49hb/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-malmo-ff/bijJ3T74/</t>
         </is>
       </c>
     </row>
@@ -9405,71 +9405,71 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>04/06/2023 17:42</t>
+          <t>05/06/2023 19:12</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>11/06/2023 16:56</t>
+          <t>11/06/2023 17:15</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>4.3</v>
+        <v>5.01</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>04/06/2023 17:42</t>
+          <t>05/06/2023 19:12</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>4.33</v>
+        <v>5.3</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>11/06/2023 17:12</t>
+          <t>11/06/2023 17:15</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>5.96</v>
+        <v>7.44</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>04/06/2023 17:42</t>
+          <t>05/06/2023 19:12</t>
         </is>
       </c>
       <c r="T98" t="n">
-        <v>6.4</v>
+        <v>7.63</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>11/06/2023 17:12</t>
+          <t>11/06/2023 17:15</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-norrkoping/8MNdnSxU/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-mjallby/OYc66VNo/</t>
         </is>
       </c>
     </row>
@@ -9497,71 +9497,71 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99" t="n">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>05/06/2023 19:12</t>
+          <t>04/06/2023 17:42</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>11/06/2023 17:15</t>
+          <t>11/06/2023 16:56</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>5.01</v>
+        <v>4.3</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>05/06/2023 19:12</t>
+          <t>04/06/2023 17:42</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>5.3</v>
+        <v>4.33</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>11/06/2023 17:15</t>
+          <t>11/06/2023 17:12</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>7.44</v>
+        <v>5.96</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>05/06/2023 19:12</t>
+          <t>04/06/2023 17:42</t>
         </is>
       </c>
       <c r="T99" t="n">
-        <v>7.63</v>
+        <v>6.4</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>11/06/2023 17:15</t>
+          <t>11/06/2023 17:12</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-mjallby/OYc66VNo/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-norrkoping/8MNdnSxU/</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -10333,63 +10333,63 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="I108" t="n">
         <v>2</v>
       </c>
       <c r="J108" t="n">
-        <v>3.36</v>
+        <v>3.74</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>02/07/2023 15:12</t>
+          <t>02/07/2023 17:45</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>3.13</v>
+        <v>3.49</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>08/07/2023 14:59</t>
+          <t>08/07/2023 14:58</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.71</v>
+        <v>3.64</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>02/07/2023 15:12</t>
+          <t>02/07/2023 17:45</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.52</v>
+        <v>3.38</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>08/07/2023 14:59</t>
+          <t>08/07/2023 14:58</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>2.12</v>
+        <v>2.01</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>02/07/2023 15:12</t>
+          <t>02/07/2023 17:45</t>
         </is>
       </c>
       <c r="T108" t="n">
-        <v>2.35</v>
+        <v>2.24</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>08/07/2023 14:59</t>
+          <t>08/07/2023 14:58</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-hacken/tnA13KDL/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-djurgarden/82wkfGz8/</t>
         </is>
       </c>
     </row>
@@ -10417,7 +10417,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -10425,63 +10425,63 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="I109" t="n">
         <v>2</v>
       </c>
       <c r="J109" t="n">
-        <v>3.74</v>
+        <v>3.36</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>02/07/2023 17:45</t>
+          <t>02/07/2023 15:12</t>
         </is>
       </c>
       <c r="L109" t="n">
-        <v>3.49</v>
+        <v>3.13</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>08/07/2023 14:58</t>
+          <t>08/07/2023 14:59</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.64</v>
+        <v>3.71</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>02/07/2023 17:45</t>
+          <t>02/07/2023 15:12</t>
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.38</v>
+        <v>3.52</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>08/07/2023 14:58</t>
+          <t>08/07/2023 14:59</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>2.01</v>
+        <v>2.12</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>02/07/2023 17:45</t>
+          <t>02/07/2023 15:12</t>
         </is>
       </c>
       <c r="T109" t="n">
-        <v>2.24</v>
+        <v>2.35</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>08/07/2023 14:58</t>
+          <t>08/07/2023 14:59</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-djurgarden/82wkfGz8/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-hacken/tnA13KDL/</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -10609,14 +10609,14 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="I111" t="n">
         <v>2</v>
       </c>
       <c r="J111" t="n">
-        <v>2.98</v>
+        <v>1.29</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,48 +10624,48 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>2.92</v>
+        <v>1.35</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
+          <t>09/07/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>03/07/2023 19:11</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
           <t>09/07/2023 14:59</t>
         </is>
       </c>
-      <c r="N111" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="O111" t="inlineStr">
+      <c r="R111" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="S111" t="inlineStr">
         <is>
           <t>03/07/2023 19:11</t>
         </is>
       </c>
-      <c r="P111" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="Q111" t="inlineStr">
-        <is>
-          <t>09/07/2023 14:54</t>
-        </is>
-      </c>
-      <c r="R111" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="S111" t="inlineStr">
-        <is>
-          <t>03/07/2023 19:11</t>
-        </is>
-      </c>
       <c r="T111" t="n">
-        <v>2.46</v>
+        <v>9.82</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>09/07/2023 14:59</t>
+          <t>09/07/2023 14:58</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-hammarby/Czptdx6e/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-mjallby/QJoYcbyq/</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -10701,14 +10701,14 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I112" t="n">
         <v>2</v>
       </c>
       <c r="J112" t="n">
-        <v>1.29</v>
+        <v>2.98</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.35</v>
+        <v>2.92</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>09/07/2023 14:55</t>
+          <t>09/07/2023 14:59</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>5.75</v>
+        <v>3.54</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,32 +10732,32 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>5.33</v>
+        <v>3.59</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
+          <t>09/07/2023 14:54</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>03/07/2023 19:11</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
           <t>09/07/2023 14:59</t>
         </is>
       </c>
-      <c r="R112" t="n">
-        <v>10.33</v>
-      </c>
-      <c r="S112" t="inlineStr">
-        <is>
-          <t>03/07/2023 19:11</t>
-        </is>
-      </c>
-      <c r="T112" t="n">
-        <v>9.82</v>
-      </c>
-      <c r="U112" t="inlineStr">
-        <is>
-          <t>09/07/2023 14:58</t>
-        </is>
-      </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-mjallby/QJoYcbyq/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-hammarby/Czptdx6e/</t>
         </is>
       </c>
     </row>
@@ -10877,7 +10877,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -10885,14 +10885,14 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="I114" t="n">
         <v>2</v>
       </c>
       <c r="J114" t="n">
-        <v>1.66</v>
+        <v>1.93</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>1.72</v>
+        <v>2.09</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>10/07/2023 18:56</t>
+          <t>10/07/2023 18:31</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>4.15</v>
+        <v>3.76</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.76</v>
+        <v>3.48</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>10/07/2023 18:56</t>
+          <t>10/07/2023 18:58</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>5.35</v>
+        <v>4.11</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>10/07/2023 18:57</t>
+          <t>10/07/2023 18:58</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-varberg/OAa62vTR/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-halmstad/YqoxcIjk/</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -10977,14 +10977,14 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="I115" t="n">
         <v>2</v>
       </c>
       <c r="J115" t="n">
-        <v>1.93</v>
+        <v>1.66</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,48 +10992,48 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>2.09</v>
+        <v>1.72</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>10/07/2023 18:31</t>
+          <t>10/07/2023 18:56</t>
         </is>
       </c>
       <c r="N115" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>03/07/2023 19:11</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
         <v>3.76</v>
       </c>
-      <c r="O115" t="inlineStr">
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>10/07/2023 18:56</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="S115" t="inlineStr">
         <is>
           <t>03/07/2023 19:11</t>
         </is>
       </c>
-      <c r="P115" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="Q115" t="inlineStr">
-        <is>
-          <t>10/07/2023 18:58</t>
-        </is>
-      </c>
-      <c r="R115" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="S115" t="inlineStr">
-        <is>
-          <t>03/07/2023 19:11</t>
-        </is>
-      </c>
       <c r="T115" t="n">
-        <v>3.9</v>
+        <v>5.4</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>10/07/2023 18:58</t>
+          <t>10/07/2023 18:57</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-halmstad/YqoxcIjk/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-varberg/OAa62vTR/</t>
         </is>
       </c>
     </row>
@@ -11613,22 +11613,22 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>4.44</v>
+        <v>2.77</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>4.02</v>
+        <v>2.58</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         </is>
       </c>
       <c r="N122" t="n">
-        <v>3.68</v>
+        <v>3.45</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
@@ -11652,32 +11652,32 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>3.47</v>
+        <v>3.39</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
+          <t>17/07/2023 18:56</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>10/07/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T122" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
           <t>17/07/2023 18:59</t>
         </is>
       </c>
-      <c r="R122" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="S122" t="inlineStr">
-        <is>
-          <t>10/07/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T122" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="U122" t="inlineStr">
-        <is>
-          <t>17/07/2023 18:57</t>
-        </is>
-      </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-aik/GS2S7Z47/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-malmo-ff/0dQzIJSE/</t>
         </is>
       </c>
     </row>
@@ -11705,22 +11705,22 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G123" t="n">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>AIK</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
         <v>2</v>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Malmo FF</t>
-        </is>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
       <c r="J123" t="n">
-        <v>2.77</v>
+        <v>4.44</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>2.58</v>
+        <v>4.02</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         </is>
       </c>
       <c r="N123" t="n">
-        <v>3.45</v>
+        <v>3.68</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
@@ -11744,15 +11744,15 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>3.39</v>
+        <v>3.47</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>17/07/2023 18:56</t>
+          <t>17/07/2023 18:59</t>
         </is>
       </c>
       <c r="R123" t="n">
-        <v>2.57</v>
+        <v>1.86</v>
       </c>
       <c r="S123" t="inlineStr">
         <is>
@@ -11760,16 +11760,16 @@
         </is>
       </c>
       <c r="T123" t="n">
-        <v>2.9</v>
+        <v>2.03</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>17/07/2023 18:59</t>
+          <t>17/07/2023 18:57</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-malmo-ff/0dQzIJSE/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-aik/GS2S7Z47/</t>
         </is>
       </c>
     </row>
@@ -12073,71 +12073,71 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>3.45</v>
+        <v>1.72</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>17/07/2023 19:11</t>
+          <t>16/07/2023 17:42</t>
         </is>
       </c>
       <c r="L127" t="n">
-        <v>3.13</v>
+        <v>1.75</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>23/07/2023 14:59</t>
+          <t>23/07/2023 14:55</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.56</v>
+        <v>4.11</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>17/07/2023 19:11</t>
+          <t>16/07/2023 17:42</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.31</v>
+        <v>4.2</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>23/07/2023 14:54</t>
+          <t>23/07/2023 14:57</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>2.14</v>
+        <v>4.59</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
-          <t>17/07/2023 19:11</t>
+          <t>16/07/2023 17:42</t>
         </is>
       </c>
       <c r="T127" t="n">
-        <v>2.46</v>
+        <v>4.57</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>23/07/2023 14:59</t>
+          <t>23/07/2023 14:57</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-malmo-ff/fJ1W6gKD/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-degerfors/6HVKDPhQ/</t>
         </is>
       </c>
     </row>
@@ -12165,71 +12165,71 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>1.72</v>
+        <v>3.45</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>16/07/2023 17:42</t>
+          <t>17/07/2023 19:11</t>
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.75</v>
+        <v>3.13</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>23/07/2023 14:55</t>
+          <t>23/07/2023 14:59</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>4.11</v>
+        <v>3.56</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>16/07/2023 17:42</t>
+          <t>17/07/2023 19:11</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>4.2</v>
+        <v>3.31</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>23/07/2023 14:57</t>
+          <t>23/07/2023 14:54</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>4.59</v>
+        <v>2.14</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
-          <t>16/07/2023 17:42</t>
+          <t>17/07/2023 19:11</t>
         </is>
       </c>
       <c r="T128" t="n">
-        <v>4.57</v>
+        <v>2.46</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>23/07/2023 14:57</t>
+          <t>23/07/2023 14:59</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-degerfors/6HVKDPhQ/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-malmo-ff/fJ1W6gKD/</t>
         </is>
       </c>
     </row>
@@ -12257,71 +12257,71 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>2.19</v>
+        <v>1.48</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>16/07/2023 15:12</t>
+          <t>17/07/2023 19:11</t>
         </is>
       </c>
       <c r="L129" t="n">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
+          <t>23/07/2023 17:22</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>17/07/2023 19:11</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
           <t>23/07/2023 17:27</t>
         </is>
       </c>
-      <c r="N129" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="O129" t="inlineStr">
-        <is>
-          <t>16/07/2023 15:12</t>
-        </is>
-      </c>
-      <c r="P129" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="Q129" t="inlineStr">
+      <c r="R129" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>17/07/2023 19:11</t>
+        </is>
+      </c>
+      <c r="T129" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="U129" t="inlineStr">
         <is>
           <t>23/07/2023 17:27</t>
         </is>
       </c>
-      <c r="R129" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="S129" t="inlineStr">
-        <is>
-          <t>16/07/2023 15:12</t>
-        </is>
-      </c>
-      <c r="T129" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="U129" t="inlineStr">
-        <is>
-          <t>23/07/2023 17:27</t>
-        </is>
-      </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-halmstad/CfWGE5wK/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-varberg/zmlq83Gm/</t>
         </is>
       </c>
     </row>
@@ -12349,46 +12349,46 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>1.48</v>
+        <v>2.19</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>17/07/2023 19:11</t>
+          <t>16/07/2023 15:12</t>
         </is>
       </c>
       <c r="L130" t="n">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>23/07/2023 17:22</t>
+          <t>23/07/2023 17:27</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>4.61</v>
+        <v>3.42</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>17/07/2023 19:11</t>
+          <t>16/07/2023 15:12</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3.57</v>
+        <v>3.42</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -12396,15 +12396,15 @@
         </is>
       </c>
       <c r="R130" t="n">
-        <v>6.6</v>
+        <v>3.52</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
-          <t>17/07/2023 19:11</t>
+          <t>16/07/2023 15:12</t>
         </is>
       </c>
       <c r="T130" t="n">
-        <v>4.59</v>
+        <v>3.99</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-varberg/zmlq83Gm/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-halmstad/CfWGE5wK/</t>
         </is>
       </c>
     </row>
@@ -12809,30 +12809,30 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="I135" t="n">
         <v>1</v>
       </c>
       <c r="J135" t="n">
-        <v>3.51</v>
+        <v>1.65</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>24/07/2023 19:12</t>
+          <t>23/07/2023 15:12</t>
         </is>
       </c>
       <c r="L135" t="n">
-        <v>3.56</v>
+        <v>2.01</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
@@ -12840,40 +12840,40 @@
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>24/07/2023 19:12</t>
+          <t>23/07/2023 15:12</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
+          <t>30/07/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>23/07/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T135" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
           <t>30/07/2023 14:58</t>
         </is>
       </c>
-      <c r="R135" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="S135" t="inlineStr">
-        <is>
-          <t>24/07/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T135" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U135" t="inlineStr">
-        <is>
-          <t>30/07/2023 14:59</t>
-        </is>
-      </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-djurgarden/StDMLMpm/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-norrkoping/M3je5106/</t>
         </is>
       </c>
     </row>
@@ -12901,30 +12901,30 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="I136" t="n">
         <v>1</v>
       </c>
       <c r="J136" t="n">
-        <v>1.65</v>
+        <v>3.51</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>23/07/2023 15:12</t>
+          <t>24/07/2023 19:12</t>
         </is>
       </c>
       <c r="L136" t="n">
-        <v>2.01</v>
+        <v>3.56</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
@@ -12932,40 +12932,40 @@
         </is>
       </c>
       <c r="N136" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>23/07/2023 15:12</t>
+          <t>24/07/2023 19:12</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
+          <t>30/07/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>24/07/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
           <t>30/07/2023 14:59</t>
         </is>
       </c>
-      <c r="R136" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="S136" t="inlineStr">
-        <is>
-          <t>23/07/2023 15:12</t>
-        </is>
-      </c>
-      <c r="T136" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="U136" t="inlineStr">
-        <is>
-          <t>30/07/2023 14:58</t>
-        </is>
-      </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-norrkoping/M3je5106/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-djurgarden/StDMLMpm/</t>
         </is>
       </c>
     </row>
@@ -13913,71 +13913,71 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="I147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>3.13</v>
+        <v>2.4</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>07/08/2023 19:12</t>
+          <t>06/08/2023 15:13</t>
         </is>
       </c>
       <c r="L147" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>13/08/2023 14:52</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>06/08/2023 15:13</t>
+        </is>
+      </c>
+      <c r="P147" t="n">
         <v>3.66</v>
       </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>13/08/2023 14:59</t>
-        </is>
-      </c>
-      <c r="N147" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="O147" t="inlineStr">
-        <is>
-          <t>07/08/2023 19:12</t>
-        </is>
-      </c>
-      <c r="P147" t="n">
-        <v>3.27</v>
-      </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>13/08/2023 14:59</t>
+          <t>13/08/2023 14:56</t>
         </is>
       </c>
       <c r="R147" t="n">
-        <v>2.34</v>
+        <v>3.14</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
-          <t>07/08/2023 19:12</t>
+          <t>06/08/2023 15:13</t>
         </is>
       </c>
       <c r="T147" t="n">
-        <v>2.22</v>
+        <v>3.64</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>13/08/2023 14:55</t>
+          <t>13/08/2023 14:56</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-djurgarden/Qa1EJiLG/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-kalmar/v7skDkbp/</t>
         </is>
       </c>
     </row>
@@ -14005,71 +14005,71 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="n">
-        <v>2.4</v>
+        <v>3.13</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>06/08/2023 15:13</t>
+          <t>07/08/2023 19:12</t>
         </is>
       </c>
       <c r="L148" t="n">
-        <v>2.08</v>
+        <v>3.66</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>13/08/2023 14:52</t>
+          <t>13/08/2023 14:59</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3.36</v>
+        <v>3.42</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>06/08/2023 15:13</t>
+          <t>07/08/2023 19:12</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3.66</v>
+        <v>3.27</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>13/08/2023 14:56</t>
+          <t>13/08/2023 14:59</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>3.14</v>
+        <v>2.34</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
-          <t>06/08/2023 15:13</t>
+          <t>07/08/2023 19:12</t>
         </is>
       </c>
       <c r="T148" t="n">
-        <v>3.64</v>
+        <v>2.22</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>13/08/2023 14:56</t>
+          <t>13/08/2023 14:55</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-kalmar/v7skDkbp/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-djurgarden/Qa1EJiLG/</t>
         </is>
       </c>
     </row>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="G149" t="n">
@@ -14105,63 +14105,63 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="I149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>2.49</v>
+        <v>3.11</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>07/08/2023 19:12</t>
+          <t>06/08/2023 17:42</t>
         </is>
       </c>
       <c r="L149" t="n">
-        <v>2.54</v>
+        <v>3.26</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>13/08/2023 17:25</t>
+          <t>13/08/2023 17:27</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>3.4</v>
+        <v>3.72</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>07/08/2023 19:12</t>
+          <t>06/08/2023 17:42</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>3.33</v>
+        <v>3.48</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>13/08/2023 16:37</t>
+          <t>13/08/2023 17:29</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>2.92</v>
+        <v>2.23</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
-          <t>07/08/2023 19:12</t>
+          <t>06/08/2023 17:42</t>
         </is>
       </c>
       <c r="T149" t="n">
-        <v>2.97</v>
+        <v>2.3</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>13/08/2023 17:25</t>
+          <t>13/08/2023 17:28</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-norrkoping/bDaMHVkT/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-elfsborg/CdcAKX5A/</t>
         </is>
       </c>
     </row>
@@ -14189,7 +14189,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="G150" t="n">
@@ -14197,63 +14197,63 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J150" t="n">
-        <v>3.11</v>
+        <v>2.49</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>06/08/2023 17:42</t>
+          <t>07/08/2023 19:12</t>
         </is>
       </c>
       <c r="L150" t="n">
-        <v>3.26</v>
+        <v>2.54</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>13/08/2023 17:27</t>
+          <t>13/08/2023 17:25</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>3.72</v>
+        <v>3.4</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>06/08/2023 17:42</t>
+          <t>07/08/2023 19:12</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3.48</v>
+        <v>3.33</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>13/08/2023 17:29</t>
+          <t>13/08/2023 16:37</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>2.23</v>
+        <v>2.92</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
-          <t>06/08/2023 17:42</t>
+          <t>07/08/2023 19:12</t>
         </is>
       </c>
       <c r="T150" t="n">
-        <v>2.3</v>
+        <v>2.97</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>13/08/2023 17:28</t>
+          <t>13/08/2023 17:25</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-elfsborg/CdcAKX5A/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-norrkoping/bDaMHVkT/</t>
         </is>
       </c>
     </row>
@@ -15017,71 +15017,71 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>2.77</v>
+        <v>1.38</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>13/08/2023 17:42</t>
+          <t>14/08/2023 19:13</t>
         </is>
       </c>
       <c r="L159" t="n">
-        <v>2.81</v>
+        <v>1.49</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>20/08/2023 17:24</t>
+          <t>20/08/2023 17:28</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>3.27</v>
+        <v>5.17</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>13/08/2023 17:42</t>
+          <t>14/08/2023 19:13</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>3.3</v>
+        <v>4.51</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>20/08/2023 17:08</t>
+          <t>20/08/2023 17:28</t>
         </is>
       </c>
       <c r="R159" t="n">
-        <v>2.75</v>
+        <v>7.8</v>
       </c>
       <c r="S159" t="inlineStr">
         <is>
-          <t>13/08/2023 17:42</t>
+          <t>14/08/2023 19:13</t>
         </is>
       </c>
       <c r="T159" t="n">
-        <v>2.71</v>
+        <v>7.11</v>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>20/08/2023 17:24</t>
+          <t>20/08/2023 17:28</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-hammarby/bRveWU4M/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-mjallby/j1ymYjzA/</t>
         </is>
       </c>
     </row>
@@ -15109,71 +15109,71 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>1.38</v>
+        <v>2.77</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="L160" t="n">
-        <v>1.49</v>
+        <v>2.81</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>20/08/2023 17:28</t>
+          <t>20/08/2023 17:24</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>5.17</v>
+        <v>3.27</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>4.51</v>
+        <v>3.3</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>20/08/2023 17:28</t>
+          <t>20/08/2023 17:08</t>
         </is>
       </c>
       <c r="R160" t="n">
-        <v>7.8</v>
+        <v>2.75</v>
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t>14/08/2023 19:13</t>
+          <t>13/08/2023 17:42</t>
         </is>
       </c>
       <c r="T160" t="n">
-        <v>7.11</v>
+        <v>2.71</v>
       </c>
       <c r="U160" t="inlineStr">
         <is>
-          <t>20/08/2023 17:28</t>
+          <t>20/08/2023 17:24</t>
         </is>
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-mjallby/j1ymYjzA/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-hammarby/bRveWU4M/</t>
         </is>
       </c>
     </row>
@@ -16489,22 +16489,22 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J175" t="n">
-        <v>2.76</v>
+        <v>1.39</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -16512,15 +16512,15 @@
         </is>
       </c>
       <c r="L175" t="n">
-        <v>3.86</v>
+        <v>1.41</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>03/09/2023 17:21</t>
+          <t>03/09/2023 17:28</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>3.47</v>
+        <v>5.11</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
@@ -16528,15 +16528,15 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3.85</v>
+        <v>5.09</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>03/09/2023 17:23</t>
+          <t>03/09/2023 17:28</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>2.58</v>
+        <v>7.64</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
@@ -16544,16 +16544,16 @@
         </is>
       </c>
       <c r="T175" t="n">
-        <v>1.96</v>
+        <v>7.85</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>03/09/2023 17:21</t>
+          <t>03/09/2023 17:29</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-brommapojkarna/6Du9dRIR/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-ifk-goteborg/Cfd6x6Re/</t>
         </is>
       </c>
     </row>
@@ -16673,22 +16673,22 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J177" t="n">
-        <v>1.39</v>
+        <v>2.76</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -16696,15 +16696,15 @@
         </is>
       </c>
       <c r="L177" t="n">
-        <v>1.41</v>
+        <v>3.86</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>03/09/2023 17:28</t>
+          <t>03/09/2023 17:21</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>5.11</v>
+        <v>3.47</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
@@ -16712,15 +16712,15 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>5.09</v>
+        <v>3.85</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>03/09/2023 17:28</t>
+          <t>03/09/2023 17:23</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>7.64</v>
+        <v>2.58</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
@@ -16728,16 +16728,16 @@
         </is>
       </c>
       <c r="T177" t="n">
-        <v>7.85</v>
+        <v>1.96</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>03/09/2023 17:29</t>
+          <t>03/09/2023 17:21</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-ifk-goteborg/Cfd6x6Re/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-brommapojkarna/6Du9dRIR/</t>
         </is>
       </c>
     </row>
@@ -16765,22 +16765,22 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>1.91</v>
+        <v>1.59</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -16788,15 +16788,15 @@
         </is>
       </c>
       <c r="L178" t="n">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>16/09/2023 14:56</t>
+          <t>16/09/2023 14:58</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>3.9</v>
+        <v>4.39</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
@@ -16804,15 +16804,15 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>3.8</v>
+        <v>5.54</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>16/09/2023 14:57</t>
+          <t>16/09/2023 14:58</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>3.84</v>
+        <v>5.63</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
@@ -16820,16 +16820,16 @@
         </is>
       </c>
       <c r="T178" t="n">
-        <v>4.56</v>
+        <v>7.87</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>16/09/2023 14:56</t>
+          <t>16/09/2023 14:58</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-brommapojkarna/bPZnkqB1/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-varberg/pKv7fvms/</t>
         </is>
       </c>
     </row>
@@ -16857,22 +16857,22 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>1.59</v>
+        <v>1.91</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -16880,15 +16880,15 @@
         </is>
       </c>
       <c r="L179" t="n">
-        <v>1.38</v>
+        <v>1.83</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>16/09/2023 14:58</t>
+          <t>16/09/2023 14:56</t>
         </is>
       </c>
       <c r="N179" t="n">
-        <v>4.39</v>
+        <v>3.9</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
@@ -16896,15 +16896,15 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>5.54</v>
+        <v>3.8</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>16/09/2023 14:58</t>
+          <t>16/09/2023 14:57</t>
         </is>
       </c>
       <c r="R179" t="n">
-        <v>5.63</v>
+        <v>3.84</v>
       </c>
       <c r="S179" t="inlineStr">
         <is>
@@ -16912,16 +16912,16 @@
         </is>
       </c>
       <c r="T179" t="n">
-        <v>7.87</v>
+        <v>4.56</v>
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>16/09/2023 14:58</t>
+          <t>16/09/2023 14:56</t>
         </is>
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-varberg/pKv7fvms/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-brommapojkarna/bPZnkqB1/</t>
         </is>
       </c>
     </row>
@@ -17474,6 +17474,558 @@
       <c r="V185" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-degerfors/rZWzhoRr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>45192.625</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Degerfors</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>1</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Malmo FF</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>2</v>
+      </c>
+      <c r="J186" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>23/09/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P186" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>23/09/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R186" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T186" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U186" t="inlineStr">
+        <is>
+          <t>23/09/2023 14:54</t>
+        </is>
+      </c>
+      <c r="V186" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-malmo-ff/nkOzlfWO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45192.72916666666</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Brommapojkarna</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>2</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Norrkoping</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>2</v>
+      </c>
+      <c r="J187" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:29</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P187" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:29</t>
+        </is>
+      </c>
+      <c r="R187" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T187" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="U187" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:29</t>
+        </is>
+      </c>
+      <c r="V187" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/brommapojkarna-norrkoping/8bPWlzHI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45193.625</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>AIK</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>2</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Djurgarden</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P188" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R188" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T188" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V188" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-djurgarden/OAwBgb2m/</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>45193.625</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Mjallby</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Goteborg</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P189" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R189" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T189" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V189" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/mjallby-ifk-goteborg/EaWNjdn6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>45193.72916666666</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>1</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Hacken</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>24/09/2023 17:19</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P190" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>24/09/2023 17:29</t>
+        </is>
+      </c>
+      <c r="R190" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T190" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>24/09/2023 17:19</t>
+        </is>
+      </c>
+      <c r="V190" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-hacken/KxXJixXa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>45193.72916666666</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Varberg</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Hammarby</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>24/09/2023 17:29</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P191" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>24/09/2023 17:29</t>
+        </is>
+      </c>
+      <c r="R191" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T191" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>24/09/2023 17:29</t>
+        </is>
+      </c>
+      <c r="V191" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-hammarby/z5HICw9P/</t>
         </is>
       </c>
     </row>

--- a/2023/sweden_allsvenskan_2023.xlsx
+++ b/2023/sweden_allsvenskan_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V191"/>
+  <dimension ref="A1:V193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3885,71 +3885,71 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>3.44</v>
+        <v>1.83</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>23/04/2023 15:12</t>
+          <t>24/04/2023 19:16</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3.81</v>
+        <v>1.78</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>30/04/2023 14:53</t>
+          <t>30/04/2023 14:57</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.4</v>
+        <v>3.79</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>23/04/2023 15:12</t>
+          <t>24/04/2023 19:16</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.27</v>
+        <v>3.71</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>30/04/2023 14:53</t>
+          <t>30/04/2023 14:57</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.2</v>
+        <v>4.34</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>23/04/2023 15:12</t>
+          <t>24/04/2023 19:16</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.18</v>
+        <v>5.07</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>30/04/2023 14:43</t>
+          <t>30/04/2023 14:57</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-kalmar/4davb4zj/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-hammarby/4YKe6SS9/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.83</v>
+        <v>3.44</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>24/04/2023 19:16</t>
+          <t>23/04/2023 15:12</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.78</v>
+        <v>3.81</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>30/04/2023 14:57</t>
+          <t>30/04/2023 14:53</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.79</v>
+        <v>3.4</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>24/04/2023 19:16</t>
+          <t>23/04/2023 15:12</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.71</v>
+        <v>3.27</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>30/04/2023 14:57</t>
+          <t>30/04/2023 14:53</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>4.34</v>
+        <v>2.2</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>24/04/2023 19:16</t>
+          <t>23/04/2023 15:12</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>5.07</v>
+        <v>2.18</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>30/04/2023 14:57</t>
+          <t>30/04/2023 14:43</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-hammarby/4YKe6SS9/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-kalmar/4davb4zj/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.01</v>
+        <v>1.45</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>03/05/2023 18:59</t>
+          <t>03/05/2023 18:55</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.99</v>
+        <v>4.38</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.41</v>
+        <v>4.74</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>03/05/2023 18:59</t>
+          <t>03/05/2023 18:55</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>5.37</v>
+        <v>6.74</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>30/04/2023 15:12</t>
+          <t>01/05/2023 02:12</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.21</v>
+        <v>7.7</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>03/05/2023 18:59</t>
+          <t>03/05/2023 18:55</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-sirius/j3bxJ5CF/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-halmstad/betVKRs3/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.45</v>
+        <v>2.01</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>03/05/2023 18:55</t>
+          <t>03/05/2023 18:59</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>4.38</v>
+        <v>3.99</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>4.74</v>
+        <v>3.41</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>03/05/2023 18:55</t>
+          <t>03/05/2023 18:59</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>6.74</v>
+        <v>5.37</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>01/05/2023 02:12</t>
+          <t>30/04/2023 15:12</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>7.7</v>
+        <v>4.21</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>03/05/2023 18:55</t>
+          <t>03/05/2023 18:59</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/elfsborg-halmstad/betVKRs3/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-sirius/j3bxJ5CF/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81" t="n">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>29/05/2023 18:24</t>
+          <t>29/05/2023 18:59</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.73</v>
+        <v>5.21</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>4.27</v>
+        <v>4.06</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         </is>
       </c>
       <c r="R81" t="n">
-        <v>3.86</v>
+        <v>7.15</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>5.15</v>
+        <v>4.86</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>29/05/2023 18:55</t>
+          <t>29/05/2023 18:59</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-varberg/zHsMZlgO/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-varnamo/bBncugPn/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,48 +7956,48 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
+          <t>29/05/2023 18:24</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>25/05/2023 19:13</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
           <t>29/05/2023 18:59</t>
         </is>
       </c>
-      <c r="N82" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="O82" t="inlineStr">
+      <c r="R82" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="S82" t="inlineStr">
         <is>
           <t>25/05/2023 19:13</t>
         </is>
       </c>
-      <c r="P82" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>29/05/2023 18:59</t>
-        </is>
-      </c>
-      <c r="R82" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>25/05/2023 19:13</t>
-        </is>
-      </c>
       <c r="T82" t="n">
-        <v>4.86</v>
+        <v>5.15</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>29/05/2023 18:59</t>
+          <t>29/05/2023 18:55</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hammarby-varnamo/bBncugPn/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/degerfors-varberg/zHsMZlgO/</t>
         </is>
       </c>
     </row>
@@ -8301,71 +8301,71 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>2.01</v>
+        <v>3.94</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>28/05/2023 15:12</t>
+          <t>29/05/2023 19:12</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.23</v>
+        <v>3.19</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>04/06/2023 14:53</t>
+          <t>04/06/2023 14:58</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.47</v>
+        <v>3.7</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>28/05/2023 15:12</t>
+          <t>29/05/2023 19:12</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.13</v>
+        <v>3.38</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>04/06/2023 14:53</t>
+          <t>04/06/2023 14:58</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>4.11</v>
+        <v>1.96</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>28/05/2023 15:12</t>
+          <t>29/05/2023 19:12</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>3.85</v>
+        <v>2.39</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>04/06/2023 14:53</t>
+          <t>04/06/2023 14:50</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-kalmar/nioQY88U/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-hammarby/tf4mjAw5/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>3.94</v>
+        <v>2.01</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>29/05/2023 19:12</t>
+          <t>28/05/2023 15:12</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>3.19</v>
+        <v>2.23</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>04/06/2023 14:58</t>
+          <t>04/06/2023 14:53</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.7</v>
+        <v>3.47</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>29/05/2023 19:12</t>
+          <t>28/05/2023 15:12</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.38</v>
+        <v>3.13</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>04/06/2023 14:58</t>
+          <t>04/06/2023 14:53</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>1.96</v>
+        <v>4.11</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>29/05/2023 19:12</t>
+          <t>28/05/2023 15:12</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.39</v>
+        <v>3.85</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>04/06/2023 14:50</t>
+          <t>04/06/2023 14:53</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-hammarby/tf4mjAw5/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/aik-kalmar/nioQY88U/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Kalmar</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J93" t="n">
-        <v>1.61</v>
+        <v>5.05</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,48 +8968,48 @@
         </is>
       </c>
       <c r="L93" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>10/06/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>05/06/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>10/06/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
         <v>1.65</v>
       </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>10/06/2023 14:58</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="O93" t="inlineStr">
+      <c r="S93" t="inlineStr">
         <is>
           <t>05/06/2023 19:12</t>
         </is>
       </c>
-      <c r="P93" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="Q93" t="inlineStr">
-        <is>
-          <t>10/06/2023 14:58</t>
-        </is>
-      </c>
-      <c r="R93" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>05/06/2023 19:12</t>
-        </is>
-      </c>
       <c r="T93" t="n">
-        <v>5.48</v>
+        <v>1.69</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>10/06/2023 14:58</t>
+          <t>10/06/2023 14:59</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-degerfors/K0iF49hb/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-malmo-ff/bijJ3T74/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Kalmar</t>
         </is>
       </c>
       <c r="G94" t="n">
+        <v>2</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Degerfors</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
         <v>1</v>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Malmo FF</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
       <c r="J94" t="n">
-        <v>5.05</v>
+        <v>1.61</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>5.47</v>
+        <v>1.65</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>10/06/2023 14:59</t>
+          <t>10/06/2023 14:58</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>4.16</v>
+        <v>4.22</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.91</v>
+        <v>4.11</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>10/06/2023 14:59</t>
+          <t>10/06/2023 14:58</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>1.65</v>
+        <v>5.37</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>1.69</v>
+        <v>5.48</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>10/06/2023 14:59</t>
+          <t>10/06/2023 14:58</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-malmo-ff/bijJ3T74/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/kalmar-degerfors/K0iF49hb/</t>
         </is>
       </c>
     </row>
@@ -9405,71 +9405,71 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Hacken</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98" t="n">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>05/06/2023 19:12</t>
+          <t>04/06/2023 17:42</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>11/06/2023 17:15</t>
+          <t>11/06/2023 16:56</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>5.01</v>
+        <v>4.3</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>05/06/2023 19:12</t>
+          <t>04/06/2023 17:42</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>5.3</v>
+        <v>4.33</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>11/06/2023 17:15</t>
+          <t>11/06/2023 17:12</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>7.44</v>
+        <v>5.96</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>05/06/2023 19:12</t>
+          <t>04/06/2023 17:42</t>
         </is>
       </c>
       <c r="T98" t="n">
-        <v>7.63</v>
+        <v>6.4</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>11/06/2023 17:15</t>
+          <t>11/06/2023 17:12</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-mjallby/OYc66VNo/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-norrkoping/8MNdnSxU/</t>
         </is>
       </c>
     </row>
@@ -9497,71 +9497,71 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Hacken</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>04/06/2023 17:42</t>
+          <t>05/06/2023 19:12</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>11/06/2023 16:56</t>
+          <t>11/06/2023 17:15</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>4.3</v>
+        <v>5.01</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>04/06/2023 17:42</t>
+          <t>05/06/2023 19:12</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>4.33</v>
+        <v>5.3</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>11/06/2023 17:12</t>
+          <t>11/06/2023 17:15</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>5.96</v>
+        <v>7.44</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>04/06/2023 17:42</t>
+          <t>05/06/2023 19:12</t>
         </is>
       </c>
       <c r="T99" t="n">
-        <v>6.4</v>
+        <v>7.63</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>11/06/2023 17:12</t>
+          <t>11/06/2023 17:15</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-norrkoping/8MNdnSxU/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/hacken-mjallby/OYc66VNo/</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -10609,14 +10609,14 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Mjallby</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="I111" t="n">
         <v>2</v>
       </c>
       <c r="J111" t="n">
-        <v>1.29</v>
+        <v>2.98</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,15 +10624,15 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1.35</v>
+        <v>2.92</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>09/07/2023 14:55</t>
+          <t>09/07/2023 14:59</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>5.75</v>
+        <v>3.54</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -10640,32 +10640,32 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>5.33</v>
+        <v>3.59</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
+          <t>09/07/2023 14:54</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>03/07/2023 19:11</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
           <t>09/07/2023 14:59</t>
         </is>
       </c>
-      <c r="R111" t="n">
-        <v>10.33</v>
-      </c>
-      <c r="S111" t="inlineStr">
-        <is>
-          <t>03/07/2023 19:11</t>
-        </is>
-      </c>
-      <c r="T111" t="n">
-        <v>9.82</v>
-      </c>
-      <c r="U111" t="inlineStr">
-        <is>
-          <t>09/07/2023 14:58</t>
-        </is>
-      </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-mjallby/QJoYcbyq/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-hammarby/Czptdx6e/</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -10701,14 +10701,14 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Mjallby</t>
         </is>
       </c>
       <c r="I112" t="n">
         <v>2</v>
       </c>
       <c r="J112" t="n">
-        <v>2.98</v>
+        <v>1.29</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,48 +10716,48 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>2.92</v>
+        <v>1.35</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
+          <t>09/07/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>03/07/2023 19:11</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
           <t>09/07/2023 14:59</t>
         </is>
       </c>
-      <c r="N112" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="O112" t="inlineStr">
+      <c r="R112" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="S112" t="inlineStr">
         <is>
           <t>03/07/2023 19:11</t>
         </is>
       </c>
-      <c r="P112" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="Q112" t="inlineStr">
-        <is>
-          <t>09/07/2023 14:54</t>
-        </is>
-      </c>
-      <c r="R112" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="S112" t="inlineStr">
-        <is>
-          <t>03/07/2023 19:11</t>
-        </is>
-      </c>
       <c r="T112" t="n">
-        <v>2.46</v>
+        <v>9.82</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>09/07/2023 14:59</t>
+          <t>09/07/2023 14:58</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-hammarby/Czptdx6e/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/malmo-ff-mjallby/QJoYcbyq/</t>
         </is>
       </c>
     </row>
@@ -10877,7 +10877,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -10885,14 +10885,14 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="I114" t="n">
         <v>2</v>
       </c>
       <c r="J114" t="n">
-        <v>1.93</v>
+        <v>1.66</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,48 +10900,48 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>2.09</v>
+        <v>1.72</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>10/07/2023 18:31</t>
+          <t>10/07/2023 18:56</t>
         </is>
       </c>
       <c r="N114" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>03/07/2023 19:11</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
         <v>3.76</v>
       </c>
-      <c r="O114" t="inlineStr">
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>10/07/2023 18:56</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="S114" t="inlineStr">
         <is>
           <t>03/07/2023 19:11</t>
         </is>
       </c>
-      <c r="P114" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="Q114" t="inlineStr">
-        <is>
-          <t>10/07/2023 18:58</t>
-        </is>
-      </c>
-      <c r="R114" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="S114" t="inlineStr">
-        <is>
-          <t>03/07/2023 19:11</t>
-        </is>
-      </c>
       <c r="T114" t="n">
-        <v>3.9</v>
+        <v>5.4</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>10/07/2023 18:58</t>
+          <t>10/07/2023 18:57</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-halmstad/YqoxcIjk/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-varberg/OAa62vTR/</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -10977,14 +10977,14 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="I115" t="n">
         <v>2</v>
       </c>
       <c r="J115" t="n">
-        <v>1.66</v>
+        <v>1.93</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,15 +10992,15 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>1.72</v>
+        <v>2.09</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>10/07/2023 18:56</t>
+          <t>10/07/2023 18:31</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>4.15</v>
+        <v>3.76</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -11008,15 +11008,15 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.76</v>
+        <v>3.48</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>10/07/2023 18:56</t>
+          <t>10/07/2023 18:58</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>5.35</v>
+        <v>4.11</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -11024,16 +11024,16 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>10/07/2023 18:57</t>
+          <t>10/07/2023 18:58</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-varberg/OAa62vTR/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/norrkoping-halmstad/YqoxcIjk/</t>
         </is>
       </c>
     </row>
@@ -11613,22 +11613,22 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="G122" t="n">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>AIK</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
         <v>2</v>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Malmo FF</t>
-        </is>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
       <c r="J122" t="n">
-        <v>2.77</v>
+        <v>4.44</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>2.58</v>
+        <v>4.02</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         </is>
       </c>
       <c r="N122" t="n">
-        <v>3.45</v>
+        <v>3.68</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
@@ -11652,15 +11652,15 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>3.39</v>
+        <v>3.47</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>17/07/2023 18:56</t>
+          <t>17/07/2023 18:59</t>
         </is>
       </c>
       <c r="R122" t="n">
-        <v>2.57</v>
+        <v>1.86</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
@@ -11668,16 +11668,16 @@
         </is>
       </c>
       <c r="T122" t="n">
-        <v>2.9</v>
+        <v>2.03</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>17/07/2023 18:59</t>
+          <t>17/07/2023 18:57</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-malmo-ff/0dQzIJSE/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-aik/GS2S7Z47/</t>
         </is>
       </c>
     </row>
@@ -11705,22 +11705,22 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="I123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>4.44</v>
+        <v>2.77</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>4.02</v>
+        <v>2.58</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         </is>
       </c>
       <c r="N123" t="n">
-        <v>3.68</v>
+        <v>3.45</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
@@ -11744,32 +11744,32 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>3.47</v>
+        <v>3.39</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
+          <t>17/07/2023 18:56</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>10/07/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T123" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
           <t>17/07/2023 18:59</t>
         </is>
       </c>
-      <c r="R123" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="S123" t="inlineStr">
-        <is>
-          <t>10/07/2023 19:12</t>
-        </is>
-      </c>
-      <c r="T123" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="U123" t="inlineStr">
-        <is>
-          <t>17/07/2023 18:57</t>
-        </is>
-      </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-aik/GS2S7Z47/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/djurgarden-malmo-ff/0dQzIJSE/</t>
         </is>
       </c>
     </row>
@@ -16765,22 +16765,22 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>1.59</v>
+        <v>1.91</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -16788,15 +16788,15 @@
         </is>
       </c>
       <c r="L178" t="n">
-        <v>1.38</v>
+        <v>1.83</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>16/09/2023 14:58</t>
+          <t>16/09/2023 14:56</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>4.39</v>
+        <v>3.9</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
@@ -16804,15 +16804,15 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>5.54</v>
+        <v>3.8</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>16/09/2023 14:58</t>
+          <t>16/09/2023 14:57</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>5.63</v>
+        <v>3.84</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
@@ -16820,16 +16820,16 @@
         </is>
       </c>
       <c r="T178" t="n">
-        <v>7.87</v>
+        <v>4.56</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>16/09/2023 14:58</t>
+          <t>16/09/2023 14:56</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-varberg/pKv7fvms/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-brommapojkarna/bPZnkqB1/</t>
         </is>
       </c>
     </row>
@@ -16857,22 +16857,22 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>1.91</v>
+        <v>1.59</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -16880,15 +16880,15 @@
         </is>
       </c>
       <c r="L179" t="n">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>16/09/2023 14:56</t>
+          <t>16/09/2023 14:58</t>
         </is>
       </c>
       <c r="N179" t="n">
-        <v>3.9</v>
+        <v>4.39</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
@@ -16896,15 +16896,15 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>3.8</v>
+        <v>5.54</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>16/09/2023 14:57</t>
+          <t>16/09/2023 14:58</t>
         </is>
       </c>
       <c r="R179" t="n">
-        <v>3.84</v>
+        <v>5.63</v>
       </c>
       <c r="S179" t="inlineStr">
         <is>
@@ -16912,16 +16912,16 @@
         </is>
       </c>
       <c r="T179" t="n">
-        <v>4.56</v>
+        <v>7.87</v>
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>16/09/2023 14:56</t>
+          <t>16/09/2023 14:58</t>
         </is>
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/sweden/allsvenskan/ifk-goteborg-brommapojkarna/bPZnkqB1/</t>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/sirius-varberg/pKv7fvms/</t>
         </is>
       </c>
     </row>
@@ -18026,6 +18026,190 @@
       <c r="V191" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/sweden/allsvenskan/varberg-hammarby/z5HICw9P/</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>45194.79166666666</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Halmstad</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Elfsborg</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>1</v>
+      </c>
+      <c r="J192" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>25/09/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P192" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>25/09/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R192" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T192" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>25/09/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V192" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/halmstad-elfsborg/tnYFhIHg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>sweden</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>allsvenskan</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>45194.79166666666</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Varnamo</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Sirius</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J193" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>25/09/2023 18:57</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P193" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>25/09/2023 18:57</t>
+        </is>
+      </c>
+      <c r="R193" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T193" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>25/09/2023 18:57</t>
+        </is>
+      </c>
+      <c r="V193" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/sweden/allsvenskan/varnamo-sirius/QZZRkG1C/</t>
         </is>
       </c>
     </row>
